--- a/sys_tdm/sys_tdm/static/excel_templates/modelo_consumo_material.xlsx
+++ b/sys_tdm/sys_tdm/static/excel_templates/modelo_consumo_material.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biasg\OneDrive\Ambiente de Trabalho\Lucas\Projetos\Tudemmad\sys_tdm\sys_tdm\static\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE94E1D-E1BF-407C-B07D-9F7806174569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA9908-1B35-4A64-922E-85E3B2111946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cabeçalho" sheetId="2" r:id="rId2"/>
-    <sheet name="Uso" sheetId="3" r:id="rId3"/>
-    <sheet name="Consumo" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Folha1!$A$1:$E$63</definedName>
@@ -31,52 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>Cod. Máquina</t>
-  </si>
-  <si>
-    <t>Nome Máquina</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Turno</t>
-  </si>
-  <si>
-    <t>Posto</t>
-  </si>
-  <si>
-    <t>Operador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo Lig. (min) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo Produtivo (min) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo Ocioso (min) </t>
-  </si>
-  <si>
-    <t>Eficiência %</t>
-  </si>
-  <si>
-    <t>Consumo Energia (kWh)</t>
-  </si>
-  <si>
-    <t>Custo Estimado (€/kWh)</t>
-  </si>
-  <si>
-    <t>Manutenção?</t>
-  </si>
-  <si>
-    <t>Tipo de Manutenção</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>REGISTO DE CONSUMOS DE MATÉRIA PRIMA</t>
   </si>
@@ -278,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,13 +241,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -307,9 +252,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,31 +260,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +579,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,535 +603,497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
+      <c r="A3" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
+      <c r="A4" s="5" t="s">
+        <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>17</v>
+      <c r="A5" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
+      <c r="A6" s="7" t="s">
+        <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>23</v>
+      <c r="A8" s="23" t="s">
+        <v>8</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="20" t="s">
-        <v>20</v>
+      <c r="A53" s="24" t="s">
+        <v>5</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A48:B48"/>
@@ -1196,144 +1108,28 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>